--- a/연구소/요구사항 정의서_v1.0(250915).xlsx
+++ b/연구소/요구사항 정의서_v1.0(250915).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0ca47fc2879dc50/바탕 화면/연구소/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1407" documentId="8_{91985E55-310B-4540-85CD-5A0D8C7B4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8860FAE5-BAF4-48CE-BF95-1CFDCF2DF541}"/>
+  <xr:revisionPtr revIDLastSave="1409" documentId="8_{91985E55-310B-4540-85CD-5A0D8C7B4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E27084-0FAF-44D9-8D25-034481A6646C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79728D4B-90EB-4EF4-B68A-0594EA014DC9}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{79728D4B-90EB-4EF4-B68A-0594EA014DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
   <si>
     <t>데이콘인피니티</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -649,6 +649,14 @@
   </si>
   <si>
     <t>25.09.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솔루션 슬라이드로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 슬라이드로 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1435,13 +1443,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1450,6 +1473,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1492,28 +1521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1873,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27D7A12-60F2-4D53-B4C4-4929D4EEC635}">
   <dimension ref="B2:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1889,34 +1897,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
       <c r="N2" s="25"/>
       <c r="O2" s="17"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="7" t="s">
         <v>17</v>
       </c>
@@ -1929,12 +1937,12 @@
       <c r="M3" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="57"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="G4" s="2"/>
@@ -1954,24 +1962,24 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="71" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="71" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="73"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="72"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
       <c r="N5" s="26"/>
       <c r="O5" s="10" t="s">
         <v>150</v>
@@ -2031,12 +2039,12 @@
         <f t="shared" ref="B7:B42" si="0">"REQ-" &amp; TEXT(ROW(A1),"000")</f>
         <v>REQ-001</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="32" t="s">
         <v>71</v>
       </c>
@@ -2062,10 +2070,10 @@
         <f t="shared" si="0"/>
         <v>REQ-002</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="29" t="s">
         <v>73</v>
       </c>
@@ -2091,10 +2099,10 @@
         <f t="shared" si="0"/>
         <v>REQ-003</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="29" t="s">
         <v>107</v>
       </c>
@@ -2120,10 +2128,10 @@
         <f t="shared" si="0"/>
         <v>REQ-004</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="29" t="s">
         <v>75</v>
       </c>
@@ -2149,10 +2157,10 @@
         <f t="shared" si="0"/>
         <v>REQ-005</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="76" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="27"/>
@@ -2186,9 +2194,9 @@
         <f t="shared" si="0"/>
         <v>REQ-006</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2219,9 +2227,9 @@
         <f t="shared" si="0"/>
         <v>REQ-007</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="1" t="s">
         <v>31</v>
       </c>
@@ -2252,8 +2260,8 @@
         <f t="shared" si="0"/>
         <v>REQ-008</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
@@ -2286,7 +2294,7 @@
         <f t="shared" si="0"/>
         <v>REQ-009</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="1" t="s">
         <v>40</v>
       </c>
@@ -2323,10 +2331,10 @@
         <f t="shared" si="0"/>
         <v>REQ-010</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="75" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="1"/>
@@ -2358,8 +2366,8 @@
         <f t="shared" si="0"/>
         <v>REQ-011</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
         <v>54</v>
@@ -2391,8 +2399,8 @@
         <f t="shared" si="0"/>
         <v>REQ-012</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
         <v>55</v>
@@ -2400,7 +2408,9 @@
       <c r="G18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="I18" s="29"/>
       <c r="J18" s="44" t="s">
         <v>37</v>
@@ -2420,8 +2430,8 @@
         <f t="shared" si="0"/>
         <v>REQ-013</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
         <v>56</v>
@@ -2429,7 +2439,9 @@
       <c r="G19" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>152</v>
+      </c>
       <c r="I19" s="29"/>
       <c r="J19" s="44" t="s">
         <v>37</v>
@@ -2449,8 +2461,8 @@
         <f t="shared" si="0"/>
         <v>REQ-014</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="50" t="s">
+      <c r="C20" s="76"/>
+      <c r="D20" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="1"/>
@@ -2467,7 +2479,7 @@
       <c r="L20" s="47">
         <v>3</v>
       </c>
-      <c r="M20" s="50" t="s">
+      <c r="M20" s="60" t="s">
         <v>61</v>
       </c>
       <c r="O20" s="12"/>
@@ -2480,8 +2492,8 @@
         <f t="shared" si="0"/>
         <v>REQ-015</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="22" t="s">
@@ -2496,7 +2508,7 @@
       <c r="L21" s="47">
         <v>3</v>
       </c>
-      <c r="M21" s="51"/>
+      <c r="M21" s="76"/>
       <c r="O21" s="12"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -2507,8 +2519,8 @@
         <f t="shared" si="0"/>
         <v>REQ-016</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="22" t="s">
@@ -2523,7 +2535,7 @@
       <c r="L22" s="47">
         <v>3</v>
       </c>
-      <c r="M22" s="52"/>
+      <c r="M22" s="61"/>
       <c r="O22" s="3"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2534,8 +2546,8 @@
         <f t="shared" si="0"/>
         <v>REQ-017</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>84</v>
@@ -2564,8 +2576,8 @@
         <f t="shared" si="0"/>
         <v>REQ-018</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>67</v>
@@ -2591,8 +2603,8 @@
         <f t="shared" si="0"/>
         <v>REQ-019</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
         <v>82</v>
@@ -2617,8 +2629,8 @@
         <f t="shared" si="0"/>
         <v>REQ-020</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="1" t="s">
         <v>80</v>
       </c>
@@ -2646,7 +2658,7 @@
         <f t="shared" si="0"/>
         <v>REQ-021</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="1" t="s">
         <v>90</v>
       </c>
@@ -2675,10 +2687,10 @@
         <f t="shared" si="0"/>
         <v>REQ-022</v>
       </c>
-      <c r="C28" s="50" t="s">
+      <c r="C28" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="60" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="1"/>
@@ -2706,8 +2718,8 @@
         <f t="shared" si="0"/>
         <v>REQ-023</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
         <v>100</v>
@@ -2735,7 +2747,7 @@
         <f t="shared" si="0"/>
         <v>REQ-024</v>
       </c>
-      <c r="C30" s="51"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="1" t="s">
         <v>109</v>
       </c>
@@ -2743,7 +2755,7 @@
         <v>114</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="58" t="s">
         <v>115</v>
       </c>
       <c r="H30" s="22" t="s">
@@ -2757,7 +2769,7 @@
       <c r="L30" s="47">
         <v>3</v>
       </c>
-      <c r="M30" s="50" t="s">
+      <c r="M30" s="60" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2766,13 +2778,13 @@
         <f t="shared" si="0"/>
         <v>REQ-025</v>
       </c>
-      <c r="C31" s="51"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="54"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="22" t="s">
         <v>119</v>
       </c>
@@ -2783,7 +2795,7 @@
       <c r="L31" s="47">
         <v>3</v>
       </c>
-      <c r="M31" s="52"/>
+      <c r="M31" s="61"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
@@ -2791,7 +2803,7 @@
         <f t="shared" si="0"/>
         <v>REQ-026</v>
       </c>
-      <c r="C32" s="51"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>118</v>
@@ -2818,7 +2830,7 @@
         <f t="shared" si="0"/>
         <v>REQ-027</v>
       </c>
-      <c r="C33" s="51"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="1" t="s">
         <v>111</v>
       </c>
@@ -2849,14 +2861,14 @@
         <f t="shared" si="0"/>
         <v>REQ-028</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="76"/>
+      <c r="D34" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="60" t="s">
         <v>124</v>
       </c>
       <c r="G34" s="22" t="s">
@@ -2882,10 +2894,10 @@
         <f t="shared" si="0"/>
         <v>REQ-029</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="22" t="s">
         <v>135</v>
       </c>
@@ -2907,9 +2919,9 @@
         <f t="shared" si="0"/>
         <v>REQ-030</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="50" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="60" t="s">
         <v>128</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2936,9 +2948,9 @@
         <f t="shared" si="0"/>
         <v>REQ-031</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="1" t="s">
         <v>100</v>
       </c>
@@ -2963,9 +2975,9 @@
         <f t="shared" si="0"/>
         <v>REQ-032</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="1" t="s">
         <v>143</v>
       </c>
@@ -2992,9 +3004,9 @@
         <f t="shared" si="0"/>
         <v>REQ-033</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="1" t="s">
         <v>112</v>
       </c>
@@ -3052,12 +3064,12 @@
         <f t="shared" si="0"/>
         <v>REQ-035</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="60" t="s">
         <v>144</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="60" t="s">
         <v>144</v>
       </c>
       <c r="G41" s="22" t="s">
@@ -3081,10 +3093,10 @@
         <f t="shared" si="0"/>
         <v>REQ-036</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="51"/>
+      <c r="F42" s="76"/>
       <c r="G42" s="43" t="s">
         <v>146</v>
       </c>
@@ -3158,12 +3170,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C28:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D28:D29"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="E34:E35"/>
@@ -3178,12 +3190,12 @@
     <mergeCell ref="C16:C27"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C28:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K7:K42">

--- a/연구소/요구사항 정의서_v1.0(250915).xlsx
+++ b/연구소/요구사항 정의서_v1.0(250915).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0ca47fc2879dc50/바탕 화면/연구소/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1409" documentId="8_{91985E55-310B-4540-85CD-5A0D8C7B4304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0E27084-0FAF-44D9-8D25-034481A6646C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0D087E0-78EB-4E04-B9EC-BCF95A1441CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{79728D4B-90EB-4EF4-B68A-0594EA014DC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{79728D4B-90EB-4EF4-B68A-0594EA014DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$6:$M$11</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,93 +39,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="151">
+  <si>
+    <t>요구사항 정의서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>데이콘인피니티</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>버전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25.09.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 버전 관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임장군</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS-IS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TO-BE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>우선순위</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AS-IS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TO-BE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개선</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Depth 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Depth 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Depth 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>결함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 정의서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문서 버전 관리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>담당자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>임장군</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태</t>
+    <t>전체</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용에 대한 시각적인 효과 부재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용에 대한 적극적인 시각 효과 부여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hover 활성화 여부에 대한 직관성 부족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직관적인 hover 활성화/비활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>읽기 불편한 줄간격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가독성 좋게 줄간격 개선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매끄럽지 않은 줄바꿈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상황에 맞는 줄바꿈 처리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -137,10 +189,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>요구사항 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>News</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,10 +197,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상세 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Introduce - Solution - Business - News - Contact</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -165,6 +209,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>LNB height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNB 활성화 시 nav가 전체 화면의 50% 이상 차지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNB height 축소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>white section</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -177,10 +233,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>동일한 흰색 배경이 겹쳐 구분 가능하게 조정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>mob nav btn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>(PC) mob nav btn 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>(PC) mob nav btn 비활성화 후 양쪽 정렬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -189,7 +253,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>O</t>
+    <t>mob</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -197,55 +261,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LNB height</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mob</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>main</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LNB 활성화 시 nav가 전체 화면의 50% 이상 차지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LNB height 축소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visual-slide</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>slide height 설정하여 통일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 slide bg img size 불일치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>slide height</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ai라고 쓰여있는 반도체 img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(PC) mob nav btn 활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터 그래프 img로 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회사 사업 분야와 이미지에 맞는 img로 변경</t>
+    <t>(mob → pc)
+bg-color 활성화 오류 및 스크롤 불가 오류 발생</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(mob → PC)
+mob overlay 비활성화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -254,7 +276,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동일한 흰색 배경이 겹쳐 구분 가능하게 조정</t>
+    <t>main</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visual-slide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slide height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 slide bg img size 불일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slide height 설정하여 통일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -262,18 +300,30 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Ai라고 쓰여있는 반도체 img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 그래프 img로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사 사업 분야와 이미지에 맞는 img로 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>slide 2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Mflex 스크린샷 화면 img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>slide 3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mflex 스크린샷 화면 img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Dflex 스크린샷 화면 img</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -286,14 +336,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>분기별, 월별 담당자 선정 및 보상 제도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>홈페이지 채널콘 운영기획서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>분기별, 월별 담당자 선정 및 보상 제도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>각 항목에 맞는 작성 주제 및 내용 선정 부적합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -310,88 +360,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>con height</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>con height 불일치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>con height 통일 및 내용 미리보기 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용에 대한 시각적인 효과 부재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상호작용에 대한 적극적인 시각 효과 부여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hover 활성화 여부에 대한 직관성 부족</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직관적인 hover 활성화/비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매끄럽지 않은 줄바꿈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(mob → pc)
-bg-color 활성화 오류 및 스크롤 불가 오류 발생</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(mob → PC)
-mob overlay 비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해상도에 따라 보이는 콘텐츠 수 조정</t>
-  </si>
-  <si>
-    <t>업로드 일자 작성으로 인해 사용자의 불필요한 추측을 유발할 수 있으므로, 연월까지만 표기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이콘 아카데미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단순 일자 나열 배치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>slide btn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 해상도에서 slide btn과 slide가 겹침</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>con date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>세부 메뉴를 추가하여 분야별 분류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI/데이터로 세부 메뉴를 구분하여 분야별 정렬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub menu</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -405,6 +374,53 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>업로드 일자 작성으로 인해 사용자의 불필요한 추측을 유발할 수 있으므로, 연월까지만 표기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>con height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>con height 불일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>con height 통일 및 내용 미리보기 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>slide btn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 해상도에서 slide btn과 slide가 겹침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도에 따라 보이는 콘텐츠 수 조정</t>
+  </si>
+  <si>
+    <t>데이콘 아카데미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub menu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순 일자 나열 배치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 메뉴를 추가하여 분야별 분류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI/데이터로 세부 메뉴를 구분하여 분야별 정렬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>about</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -421,22 +437,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>footer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 해상도에서 텍스트 강제 줄바꿈 현상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해상도를 고려한 줄바꿈 부여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sub</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -445,23 +445,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>최신 콘텐츠 tap menu 상호작용 활성화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신 콘텐츠 tap menu 상호작용 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>불필요한 상호작용 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>board</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>일반 게시판 형태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신 콘텐츠 tap menu 상호작용 활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신 콘텐츠 tap menu 상호작용 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불필요한 상호작용 삭제</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -474,22 +474,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>읽기 불편한 줄간격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가독성 좋게 줄간격 개선</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Solution</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Mflex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개 -  장점 - 특징 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개 - 구성 - 특장점 - 기능 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>솔루션 페이지 기획서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Dflex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개 - 특장점 - 기능 - 로드맵 - 지원체계 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aflex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 해상도에서 img height 불일치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img height 통일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Business</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -498,42 +522,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>항목별 이력 search bar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목별 이력 search bar 삭제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>항목별 이력 검색 불필요 및 실질적인 기능 불가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mflex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개 -  장점 - 특징 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개 - 구성 - 특장점 - 기능 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dflex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aflex</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소개 - 특장점 - 기능 - 로드맵 - 지원체계 구성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 해상도에서 img height 불일치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>img height 통일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Contact</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -558,7 +558,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>필수항목(required) 부재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수항목(required) 부여</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>채용정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용 관련 안내 내용을 일반 게시물 상태로 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용정보 상단에 복지제도/인재상/입사 후 생활 안내 노출</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채용공고를 일반 게시판 형태로 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신 채용공고만 노출되는 간단 게시판 형태로 작성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rec date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일 미표기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신 채용공고만 노출되도록 변경하므로 등록일
+불필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -575,52 +616,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>채용 관련 안내 내용을 일반 게시물 상태로 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목별 이력 search bar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>항목별 이력 search bar 삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수항목(required) 부재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수항목(required) 부여</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용정보 상단에 복지제도/인재상/입사 후 생활 안내 노출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일 미표기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신 채용공고만 노출되도록 변경하므로 등록일
-불필요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채용공고를 일반 게시판 형태로 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최신 채용공고만 노출되는 간단 게시판 형태로 작성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rec date</t>
+    <t>footer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 해상도에서 텍스트 강제 줄바꿈 현상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>해상도를 고려한 줄바꿈 부여</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -628,6 +636,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>클릭 선입력 오류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>클릭 선입력 오류 개선</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -637,26 +649,6 @@
   </si>
   <si>
     <t>(mob) top btn 비활성화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭 선입력 오류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상황에 맞는 줄바꿈 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25.09.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>솔루션 슬라이드로 변경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스 슬라이드로 변경</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,7 +656,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,7 +1284,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,6 +1357,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,28 +1438,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1473,12 +1453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,7 +1495,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1556,10 +1551,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1881,339 +1872,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27D7A12-60F2-4D53-B4C4-4929D4EEC635}">
   <dimension ref="B2:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="5" width="15.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.625" style="2" customWidth="1"/>
     <col min="7" max="8" width="44.625" customWidth="1"/>
-    <col min="9" max="9" width="44.625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="44.625" style="32" customWidth="1"/>
     <col min="10" max="12" width="9" style="2"/>
     <col min="13" max="13" width="29.625" style="2" customWidth="1"/>
     <col min="14" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="25"/>
+    <row r="2" spans="2:18" ht="63.95" customHeight="1">
+      <c r="B2" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="7" t="s">
-        <v>17</v>
+    <row r="3" spans="2:18">
+      <c r="B3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="24" t="s">
+        <v>2</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="64"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O3" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
+    </row>
+    <row r="4" spans="2:18">
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="52" t="s">
+      <c r="G6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
+      <c r="J6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="O6" s="12"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="44" t="str">
+    <row r="7" spans="2:18">
+      <c r="B7" s="45" t="str">
         <f t="shared" ref="B7:B42" si="0">"REQ-" &amp; TEXT(ROW(A1),"000")</f>
         <v>REQ-001</v>
       </c>
-      <c r="C7" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="44">
+      <c r="C7" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="45">
         <v>3</v>
       </c>
-      <c r="M7" s="36"/>
+      <c r="M7" s="37"/>
       <c r="O7" s="12"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="44" t="str">
+    <row r="8" spans="2:18">
+      <c r="B8" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-002</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="45">
+      <c r="C8" s="62"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="39"/>
+      <c r="J8" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="40"/>
+      <c r="L8" s="46">
         <v>3</v>
       </c>
-      <c r="M8" s="38"/>
+      <c r="M8" s="39"/>
       <c r="O8" s="12"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="str">
+    <row r="9" spans="2:18">
+      <c r="B9" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-003</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="45">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="40"/>
+      <c r="L9" s="46">
         <v>3</v>
       </c>
-      <c r="M9" s="38"/>
+      <c r="M9" s="39"/>
       <c r="O9" s="12"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="str">
+    <row r="10" spans="2:18">
+      <c r="B10" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-004</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="45">
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="39"/>
+      <c r="J10" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="40"/>
+      <c r="L10" s="46">
         <v>3</v>
       </c>
-      <c r="M10" s="38"/>
+      <c r="M10" s="39"/>
       <c r="O10" s="12"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="44" t="str">
+    <row r="11" spans="2:18">
+      <c r="B11" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-005</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="34" t="s">
+      <c r="C11" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="46">
+      <c r="K11" s="28"/>
+      <c r="L11" s="47">
         <v>2</v>
       </c>
-      <c r="M11" s="27"/>
+      <c r="M11" s="28"/>
       <c r="O11" s="12"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="44" t="str">
+    <row r="12" spans="2:18">
+      <c r="B12" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-006</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76" t="s">
-        <v>30</v>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52" t="s">
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="44" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="47">
+      <c r="L12" s="48">
         <v>2</v>
       </c>
       <c r="M12" s="1"/>
@@ -2222,31 +2213,31 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="44" t="str">
+    <row r="13" spans="2:18">
+      <c r="B13" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-007</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="61"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="47">
+      <c r="L13" s="48">
         <v>2</v>
       </c>
       <c r="M13" s="1"/>
@@ -2255,32 +2246,32 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="44" t="str">
+    <row r="14" spans="2:18">
+      <c r="B14" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-008</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="61"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
       <c r="E14" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J14" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="L14" s="47">
+      <c r="G14" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="48">
         <v>2</v>
       </c>
       <c r="M14" s="1"/>
@@ -2289,35 +2280,35 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="2:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="44" t="str">
+    <row r="15" spans="2:18" ht="33">
+      <c r="B15" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-009</v>
       </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>57</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="47">
+        <v>28</v>
+      </c>
+      <c r="L15" s="48">
         <v>1</v>
       </c>
       <c r="M15" s="1"/>
@@ -2326,33 +2317,33 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="44" t="str">
+    <row r="16" spans="2:18">
+      <c r="B16" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-010</v>
       </c>
-      <c r="C16" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>44</v>
+      <c r="C16" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>59</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="9" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="44" t="s">
-        <v>37</v>
+        <v>62</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="47">
+      <c r="L16" s="48">
         <v>2</v>
       </c>
       <c r="M16" s="1"/>
@@ -2361,31 +2352,31 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="str">
+    <row r="17" spans="2:19">
+      <c r="B17" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-011</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>37</v>
+        <v>65</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="47">
+      <c r="L17" s="48">
         <v>2</v>
       </c>
       <c r="M17" s="1"/>
@@ -2394,29 +2385,27 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="str">
+    <row r="18" spans="2:19">
+      <c r="B18" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-012</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="44" t="s">
-        <v>37</v>
+        <v>68</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K18" s="1"/>
-      <c r="L18" s="47">
+      <c r="L18" s="48">
         <v>2</v>
       </c>
       <c r="M18" s="1"/>
@@ -2425,29 +2414,27 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="str">
+    <row r="19" spans="2:19">
+      <c r="B19" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-013</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="61"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="44" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="47">
+      <c r="L19" s="48">
         <v>2</v>
       </c>
       <c r="M19" s="1"/>
@@ -2456,419 +2443,419 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="44" t="str">
+    <row r="20" spans="2:19">
+      <c r="B20" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-014</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="60" t="s">
-        <v>59</v>
+      <c r="C20" s="52"/>
+      <c r="D20" s="51" t="s">
+        <v>71</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="22" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="44"/>
+        <v>73</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="47">
+      <c r="L20" s="48">
         <v>3</v>
       </c>
-      <c r="M20" s="60" t="s">
-        <v>61</v>
+      <c r="M20" s="51" t="s">
+        <v>74</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="str">
+    <row r="21" spans="2:19">
+      <c r="B21" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-015</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="22" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="44"/>
+        <v>76</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="45"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="47">
+      <c r="L21" s="48">
         <v>3</v>
       </c>
-      <c r="M21" s="76"/>
+      <c r="M21" s="52"/>
       <c r="O21" s="12"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="44" t="str">
+    <row r="22" spans="2:19">
+      <c r="B22" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-016</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="22" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="44"/>
+        <v>78</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="47">
+      <c r="L22" s="48">
         <v>3</v>
       </c>
-      <c r="M22" s="61"/>
+      <c r="M22" s="53"/>
       <c r="O22" s="3"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="str">
+    <row r="23" spans="2:19" ht="33">
+      <c r="B23" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-017</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="44" t="s">
-        <v>37</v>
+      <c r="G23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="47">
+      <c r="L23" s="48">
         <v>2</v>
       </c>
-      <c r="M23" s="27"/>
+      <c r="M23" s="28"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B24" s="44" t="str">
+    <row r="24" spans="2:19">
+      <c r="B24" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-018</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="44" t="s">
-        <v>37</v>
+        <v>84</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="30"/>
+      <c r="J24" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K24" s="1"/>
-      <c r="L24" s="47">
+      <c r="L24" s="48">
         <v>2</v>
       </c>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B25" s="44" t="str">
+    <row r="25" spans="2:19">
+      <c r="B25" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-019</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>88</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="47">
+        <v>28</v>
+      </c>
+      <c r="L25" s="48">
         <v>1</v>
       </c>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B26" s="44" t="str">
+    <row r="26" spans="2:19">
+      <c r="B26" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-020</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>86</v>
+        <v>92</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="47">
+      <c r="L26" s="48">
         <v>2</v>
       </c>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B27" s="44" t="str">
+    <row r="27" spans="2:19">
+      <c r="B27" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-021</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>93</v>
+      <c r="G27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="48">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>REQ-022</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="51" t="s">
         <v>37</v>
-      </c>
-      <c r="L27" s="47">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>REQ-022</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>25</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G28" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I28" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J28" s="44" t="s">
-        <v>37</v>
+      <c r="J28" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="47"/>
+      <c r="L28" s="48"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="2:19" ht="33" x14ac:dyDescent="0.3">
-      <c r="B29" s="44" t="str">
+    <row r="29" spans="2:19" ht="33">
+      <c r="B29" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-023</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="61"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="I29" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="J29" s="44" t="s">
-        <v>37</v>
+      <c r="J29" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="48">
+      <c r="L29" s="49">
         <v>2</v>
       </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="str">
+    <row r="30" spans="2:19">
+      <c r="B30" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-024</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="58" t="s">
-        <v>115</v>
-      </c>
       <c r="H30" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="44" t="s">
-        <v>37</v>
+        <v>110</v>
+      </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="47">
+      <c r="L30" s="48">
         <v>3</v>
       </c>
-      <c r="M30" s="60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="44" t="str">
+      <c r="M30" s="51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-025</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="59"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="J31" s="44" t="s">
-        <v>37</v>
+        <v>113</v>
+      </c>
+      <c r="J31" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="47">
+      <c r="L31" s="48">
         <v>3</v>
       </c>
-      <c r="M31" s="61"/>
+      <c r="M31" s="53"/>
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="str">
+    <row r="32" spans="2:19">
+      <c r="B32" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-026</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="44" t="s">
-        <v>37</v>
+      <c r="G32" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K32" s="1"/>
-      <c r="L32" s="47">
+      <c r="L32" s="48">
         <v>2</v>
       </c>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="44" t="str">
+    <row r="33" spans="2:13">
+      <c r="B33" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-027</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="J33" s="44" t="s">
-        <v>37</v>
+        <v>120</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J33" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K33" s="1"/>
-      <c r="L33" s="47">
+      <c r="L33" s="48">
         <v>2</v>
       </c>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="44" t="str">
+    <row r="34" spans="2:13">
+      <c r="B34" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-028</v>
       </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="60" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="51" t="s">
         <v>124</v>
       </c>
       <c r="G34" s="22" t="s">
@@ -2880,240 +2867,240 @@
       <c r="I34" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="J34" s="44" t="s">
-        <v>37</v>
+      <c r="J34" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="47">
+      <c r="L34" s="48">
         <v>2</v>
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="44" t="str">
+    <row r="35" spans="2:13">
+      <c r="B35" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-029</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="22"/>
+      <c r="J35" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="48">
+        <v>2</v>
+      </c>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="2:13" ht="33">
+      <c r="B36" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>REQ-030</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="48">
+        <v>2</v>
+      </c>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="2:13">
+      <c r="B37" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>REQ-031</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="H35" s="22" t="s">
+      <c r="I37" s="41"/>
+      <c r="J37" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="48">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="2:13" ht="33">
+      <c r="B38" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>REQ-032</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I35" s="22"/>
-      <c r="J35" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="47">
+      <c r="G38" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="48">
         <v>2</v>
       </c>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B36" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>REQ-030</v>
-      </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="2:13" ht="33">
+      <c r="B39" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>REQ-033</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="J39" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="48">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="2:13">
+      <c r="B40" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>REQ-034</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="47">
-        <v>2</v>
-      </c>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>REQ-031</v>
-      </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="47">
-        <v>2</v>
-      </c>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B38" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>REQ-032</v>
-      </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="J38" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="47">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="2:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="B39" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>REQ-033</v>
-      </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G39" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="H39" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="47">
-        <v>2</v>
-      </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="44" t="str">
-        <f t="shared" si="0"/>
-        <v>REQ-034</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G40" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="H40" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I40" s="29"/>
+        <v>143</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" s="30"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L40" s="47">
+        <v>28</v>
+      </c>
+      <c r="L40" s="48">
         <v>1</v>
       </c>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="44" t="str">
+    <row r="41" spans="2:13">
+      <c r="B41" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-035</v>
       </c>
-      <c r="C41" s="60" t="s">
-        <v>144</v>
+      <c r="C41" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="60" t="s">
-        <v>144</v>
+      <c r="F41" s="51" t="s">
+        <v>146</v>
       </c>
       <c r="G41" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H41" s="30" t="s">
         <v>148</v>
-      </c>
-      <c r="H41" s="29" t="s">
-        <v>145</v>
       </c>
       <c r="I41" s="22"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L41" s="47">
+        <v>28</v>
+      </c>
+      <c r="L41" s="48">
         <v>1</v>
       </c>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="44" t="str">
+    <row r="42" spans="2:13">
+      <c r="B42" s="45" t="str">
         <f t="shared" si="0"/>
         <v>REQ-036</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="K42" s="33"/>
-      <c r="L42" s="49">
+      <c r="C42" s="52"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="I42" s="43"/>
+      <c r="J42" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="34"/>
+      <c r="L42" s="50">
         <v>2</v>
       </c>
-      <c r="M42" s="33"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M42" s="34"/>
+    </row>
+    <row r="43" spans="2:13">
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
@@ -3127,55 +3114,55 @@
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13">
       <c r="I44"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13">
       <c r="I45"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13">
       <c r="I46"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13">
       <c r="I47"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13">
       <c r="I48"/>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:9">
       <c r="I49"/>
     </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:9">
       <c r="I50"/>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:9">
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="7:9">
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="7:9">
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="7:9">
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C28:C39"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="G30:G31"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="E34:E35"/>
@@ -3190,12 +3177,12 @@
     <mergeCell ref="C16:C27"/>
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C28:C39"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K7:K42">
